--- a/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/tugas/Pertemuan 5.xlsx
+++ b/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/tugas/Pertemuan 5.xlsx
@@ -1,10 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="7" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Kampus\Semester 3\Rabu\Statistika\Minggu 5 - Ukuran Dispersi\tugas\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -12,7 +17,7 @@
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">Sheet1!$A$1:$S$26</definedName>
   </definedNames>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -572,13 +577,13 @@
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="8" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -606,8 +611,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409700" cy="546625"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -655,7 +660,7 @@
                         <m:chr m:val="̅"/>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:accPr>
@@ -678,7 +683,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -690,7 +695,7 @@
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
                               <a:rPr lang="id-ID" sz="1400" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:naryPr>
@@ -701,7 +706,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -732,7 +737,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -764,7 +769,7 @@
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
                               <a:rPr lang="id-ID" sz="1400" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:naryPr>
@@ -775,7 +780,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -808,7 +813,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -879,8 +884,8 @@
       <xdr:rowOff>28575</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1685925" cy="546625"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -939,7 +944,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -951,7 +956,7 @@
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
                               <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:naryPr>
@@ -962,7 +967,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -993,7 +998,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -1025,7 +1030,7 @@
                                 <m:chr m:val="̅"/>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:accPr>
@@ -1055,7 +1060,7 @@
                             <m:supHide m:val="on"/>
                             <m:ctrlPr>
                               <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                <a:latin typeface="Cambria Math"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                               </a:rPr>
                             </m:ctrlPr>
                           </m:naryPr>
@@ -1066,7 +1071,7 @@
                               <m:sSubPr>
                                 <m:ctrlPr>
                                   <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                                    <a:latin typeface="Cambria Math"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                   </a:rPr>
                                 </m:ctrlPr>
                               </m:sSubPr>
@@ -1099,7 +1104,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="4" name="TextBox 3"/>
@@ -1158,8 +1163,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1809750" cy="497059"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1206,7 +1211,7 @@
                       <m:sSupPr>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:sSupPr>
@@ -1237,7 +1242,7 @@
                       <m:fPr>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
                       </m:fPr>
@@ -1279,7 +1284,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1292,7 +1297,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1306,7 +1311,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1321,7 +1326,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1334,7 +1339,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1348,7 +1353,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1362,7 +1367,7 @@
                                   <a:schemeClr val="tx1"/>
                                 </a:solidFill>
                                 <a:effectLst/>
-                                <a:latin typeface="+mn-lt"/>
+                                <a:latin typeface="Cambria Math"/>
                                 <a:ea typeface="+mn-ea"/>
                                 <a:cs typeface="+mn-cs"/>
                               </a:rPr>
@@ -1377,7 +1382,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1390,7 +1395,7 @@
                                       <a:schemeClr val="tx1"/>
                                     </a:solidFill>
                                     <a:effectLst/>
-                                    <a:latin typeface="+mn-lt"/>
+                                    <a:latin typeface="Cambria Math"/>
                                     <a:ea typeface="+mn-ea"/>
                                     <a:cs typeface="+mn-cs"/>
                                   </a:rPr>
@@ -1408,7 +1413,7 @@
                               <a:schemeClr val="tx1"/>
                             </a:solidFill>
                             <a:effectLst/>
-                            <a:latin typeface="+mn-lt"/>
+                            <a:latin typeface="Cambria Math"/>
                             <a:ea typeface="+mn-ea"/>
                             <a:cs typeface="+mn-cs"/>
                           </a:rPr>
@@ -1424,7 +1429,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="5" name="TextBox 4"/>
@@ -1501,9 +1506,9 @@
       <xdr:row>22</xdr:row>
       <xdr:rowOff>19050</xdr:rowOff>
     </xdr:from>
-    <xdr:ext cx="1162050" cy="334515"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
+    <xdr:ext cx="1162050" cy="378822"/>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
+      <mc:Choice Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1511,8 +1516,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3209925" y="4267200"/>
-              <a:ext cx="1162050" cy="334515"/>
+              <a:off x="2809875" y="4467225"/>
+              <a:ext cx="1162050" cy="378822"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1562,36 +1567,46 @@
                       <a:rPr lang="id-ID" sz="1400" b="0" i="1">
                         <a:latin typeface="Cambria Math"/>
                       </a:rPr>
-                      <m:t>)= </m:t>
+                      <m:t>)= </m:t>
                     </m:r>
-                    <m:sSup>
-                      <m:sSupPr>
+                    <m:rad>
+                      <m:radPr>
+                        <m:degHide m:val="on"/>
                         <m:ctrlPr>
                           <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
-                            <a:sym typeface="Symbol"/>
+                            <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                           </a:rPr>
                         </m:ctrlPr>
-                      </m:sSupPr>
+                      </m:radPr>
+                      <m:deg/>
                       <m:e>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
-                            <a:sym typeface="Symbol"/>
-                          </a:rPr>
-                          <m:t>𝑠</m:t>
-                        </m:r>
+                        <m:sSup>
+                          <m:sSupPr>
+                            <m:ctrlPr>
+                              <a:rPr lang="id-ID" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                              </a:rPr>
+                            </m:ctrlPr>
+                          </m:sSupPr>
+                          <m:e>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>𝑠</m:t>
+                            </m:r>
+                          </m:e>
+                          <m:sup>
+                            <m:r>
+                              <a:rPr lang="id-ID" sz="1400" b="0" i="1">
+                                <a:latin typeface="Cambria Math"/>
+                              </a:rPr>
+                              <m:t>2</m:t>
+                            </m:r>
+                          </m:sup>
+                        </m:sSup>
                       </m:e>
-                      <m:sup>
-                        <m:r>
-                          <a:rPr lang="id-ID" sz="1400" b="0" i="1">
-                            <a:latin typeface="Cambria Math"/>
-                            <a:sym typeface="Symbol"/>
-                          </a:rPr>
-                          <m:t>2</m:t>
-                        </m:r>
-                      </m:sup>
-                    </m:sSup>
+                    </m:rad>
                   </m:oMath>
                 </m:oMathPara>
               </a14:m>
@@ -1600,7 +1615,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback>
+      <mc:Fallback xmlns="">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="7" name="TextBox 6"/>
@@ -1608,8 +1623,8 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="3209925" y="4267200"/>
-              <a:ext cx="1162050" cy="334515"/>
+              <a:off x="2809875" y="4467225"/>
+              <a:ext cx="1162050" cy="378822"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -1641,14 +1656,7 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>(𝑠)= </a:t>
-              </a:r>
-              <a:r>
-                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
-                  <a:latin typeface="Cambria Math"/>
-                  <a:sym typeface="Symbol"/>
-                </a:rPr>
-                <a:t>𝑠^2</a:t>
+                <a:t>(𝑠)= √(𝑠^2 )</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -1950,7 +1958,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1960,8 +1968,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="Q19" sqref="Q19"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I17" sqref="I17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -1997,16 +2005,16 @@
       </c>
     </row>
     <row r="6" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B6" s="16"/>
-      <c r="C6" s="16"/>
-      <c r="D6" s="16"/>
+      <c r="B6" s="14"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="14"/>
     </row>
     <row r="7" spans="2:18" ht="19.5" x14ac:dyDescent="0.35">
-      <c r="B7" s="14" t="s">
+      <c r="B7" s="15" t="s">
         <v>7</v>
       </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="14"/>
+      <c r="C7" s="15"/>
+      <c r="D7" s="15"/>
       <c r="E7" s="9" t="s">
         <v>15</v>
       </c>
@@ -2092,7 +2100,7 @@
         <v>69</v>
       </c>
       <c r="M8" s="6">
-        <f>$E$17</f>
+        <f t="shared" ref="M8:M14" si="0">$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N8" s="6">
@@ -2130,55 +2138,55 @@
         <v>3</v>
       </c>
       <c r="F9" s="6">
-        <f t="shared" ref="F9:F14" si="0">B9</f>
+        <f t="shared" ref="F9:F14" si="1">B9</f>
         <v>40</v>
       </c>
       <c r="G9" s="6">
-        <f t="shared" ref="G9:G14" si="1">D9</f>
+        <f t="shared" ref="G9:G14" si="2">D9</f>
         <v>49</v>
       </c>
       <c r="H9" s="6">
-        <f t="shared" ref="H9:H14" si="2">B9-0.5</f>
+        <f t="shared" ref="H9:H14" si="3">B9-0.5</f>
         <v>39.5</v>
       </c>
       <c r="I9" s="6">
-        <f t="shared" ref="I9:I14" si="3">D9+0.5</f>
+        <f t="shared" ref="I9:I14" si="4">D9+0.5</f>
         <v>49.5</v>
       </c>
       <c r="J9" s="6">
-        <f t="shared" ref="J9:J14" si="4">SUMIF($B$8:$B$14,"&lt;="&amp;B9,$E$8:$E$14)</f>
+        <f t="shared" ref="J9:J14" si="5">SUMIF($B$8:$B$14,"&lt;="&amp;B9,$E$8:$E$14)</f>
         <v>5</v>
       </c>
       <c r="K9" s="6">
-        <f t="shared" ref="K9:K14" si="5">(D9+B9)/2</f>
+        <f t="shared" ref="K9:K14" si="6">(D9+B9)/2</f>
         <v>44.5</v>
       </c>
       <c r="L9" s="6">
-        <f t="shared" ref="L9:L14" si="6">K9*E9</f>
+        <f t="shared" ref="L9:L14" si="7">K9*E9</f>
         <v>133.5</v>
       </c>
       <c r="M9" s="6">
-        <f>$E$17</f>
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
       <c r="N9" s="6">
-        <f t="shared" ref="N9:N14" si="7">K9-M9</f>
+        <f t="shared" ref="N9:N14" si="8">K9-M9</f>
         <v>-28</v>
       </c>
       <c r="O9" s="6">
-        <f t="shared" ref="O9:O14" si="8">ABS(N9)</f>
+        <f t="shared" ref="O9:O14" si="9">ABS(N9)</f>
         <v>28</v>
       </c>
       <c r="P9" s="6">
-        <f t="shared" ref="P9:P14" si="9">E9*O9</f>
+        <f t="shared" ref="P9:P14" si="10">E9*O9</f>
         <v>84</v>
       </c>
       <c r="Q9" s="2">
-        <f t="shared" ref="Q9:Q14" si="10">(K9-M9)^2</f>
+        <f t="shared" ref="Q9:Q14" si="11">(K9-M9)^2</f>
         <v>784</v>
       </c>
       <c r="R9" s="6">
-        <f t="shared" ref="R9:R14" si="11">E9*Q9</f>
+        <f t="shared" ref="R9:R14" si="12">E9*Q9</f>
         <v>2352</v>
       </c>
     </row>
@@ -2196,55 +2204,55 @@
         <v>11</v>
       </c>
       <c r="F10" s="6">
+        <f t="shared" si="1"/>
+        <v>50</v>
+      </c>
+      <c r="G10" s="6">
+        <f t="shared" si="2"/>
+        <v>59</v>
+      </c>
+      <c r="H10" s="6">
+        <f t="shared" si="3"/>
+        <v>49.5</v>
+      </c>
+      <c r="I10" s="6">
+        <f t="shared" si="4"/>
+        <v>59.5</v>
+      </c>
+      <c r="J10" s="6">
+        <f t="shared" si="5"/>
+        <v>16</v>
+      </c>
+      <c r="K10" s="6">
+        <f t="shared" si="6"/>
+        <v>54.5</v>
+      </c>
+      <c r="L10" s="6">
+        <f t="shared" si="7"/>
+        <v>599.5</v>
+      </c>
+      <c r="M10" s="6">
         <f t="shared" si="0"/>
-        <v>50</v>
-      </c>
-      <c r="G10" s="6">
-        <f t="shared" si="1"/>
-        <v>59</v>
-      </c>
-      <c r="H10" s="6">
-        <f t="shared" si="2"/>
-        <v>49.5</v>
-      </c>
-      <c r="I10" s="6">
-        <f t="shared" si="3"/>
-        <v>59.5</v>
-      </c>
-      <c r="J10" s="6">
-        <f t="shared" si="4"/>
-        <v>16</v>
-      </c>
-      <c r="K10" s="6">
-        <f t="shared" si="5"/>
-        <v>54.5</v>
-      </c>
-      <c r="L10" s="6">
-        <f t="shared" si="6"/>
-        <v>599.5</v>
-      </c>
-      <c r="M10" s="6">
-        <f>$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N10" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-18</v>
       </c>
       <c r="O10" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>18</v>
       </c>
       <c r="P10" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>198</v>
       </c>
       <c r="Q10" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>324</v>
       </c>
       <c r="R10" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3564</v>
       </c>
     </row>
@@ -2262,55 +2270,55 @@
         <v>20</v>
       </c>
       <c r="F11" s="6">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="G11" s="6">
+        <f t="shared" si="2"/>
+        <v>69</v>
+      </c>
+      <c r="H11" s="6">
+        <f t="shared" si="3"/>
+        <v>59.5</v>
+      </c>
+      <c r="I11" s="6">
+        <f t="shared" si="4"/>
+        <v>69.5</v>
+      </c>
+      <c r="J11" s="6">
+        <f t="shared" si="5"/>
+        <v>36</v>
+      </c>
+      <c r="K11" s="6">
+        <f t="shared" si="6"/>
+        <v>64.5</v>
+      </c>
+      <c r="L11" s="6">
+        <f t="shared" si="7"/>
+        <v>1290</v>
+      </c>
+      <c r="M11" s="6">
         <f t="shared" si="0"/>
-        <v>60</v>
-      </c>
-      <c r="G11" s="6">
-        <f t="shared" si="1"/>
-        <v>69</v>
-      </c>
-      <c r="H11" s="6">
-        <f t="shared" si="2"/>
-        <v>59.5</v>
-      </c>
-      <c r="I11" s="6">
-        <f t="shared" si="3"/>
-        <v>69.5</v>
-      </c>
-      <c r="J11" s="6">
-        <f t="shared" si="4"/>
-        <v>36</v>
-      </c>
-      <c r="K11" s="6">
-        <f t="shared" si="5"/>
-        <v>64.5</v>
-      </c>
-      <c r="L11" s="6">
-        <f t="shared" si="6"/>
-        <v>1290</v>
-      </c>
-      <c r="M11" s="6">
-        <f>$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N11" s="6">
-        <f t="shared" si="7"/>
+        <f t="shared" si="8"/>
         <v>-8</v>
       </c>
       <c r="O11" s="6">
-        <f t="shared" si="8"/>
+        <f t="shared" si="9"/>
         <v>8</v>
       </c>
       <c r="P11" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>160</v>
       </c>
       <c r="Q11" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>64</v>
       </c>
       <c r="R11" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>1280</v>
       </c>
     </row>
@@ -2328,55 +2336,55 @@
         <v>32</v>
       </c>
       <c r="F12" s="6">
+        <f t="shared" si="1"/>
+        <v>70</v>
+      </c>
+      <c r="G12" s="6">
+        <f t="shared" si="2"/>
+        <v>79</v>
+      </c>
+      <c r="H12" s="6">
+        <f t="shared" si="3"/>
+        <v>69.5</v>
+      </c>
+      <c r="I12" s="6">
+        <f t="shared" si="4"/>
+        <v>79.5</v>
+      </c>
+      <c r="J12" s="6">
+        <f t="shared" si="5"/>
+        <v>68</v>
+      </c>
+      <c r="K12" s="6">
+        <f t="shared" si="6"/>
+        <v>74.5</v>
+      </c>
+      <c r="L12" s="6">
+        <f t="shared" si="7"/>
+        <v>2384</v>
+      </c>
+      <c r="M12" s="6">
         <f t="shared" si="0"/>
-        <v>70</v>
-      </c>
-      <c r="G12" s="6">
-        <f t="shared" si="1"/>
-        <v>79</v>
-      </c>
-      <c r="H12" s="6">
-        <f t="shared" si="2"/>
-        <v>69.5</v>
-      </c>
-      <c r="I12" s="6">
-        <f t="shared" si="3"/>
-        <v>79.5</v>
-      </c>
-      <c r="J12" s="6">
-        <f t="shared" si="4"/>
-        <v>68</v>
-      </c>
-      <c r="K12" s="6">
-        <f t="shared" si="5"/>
-        <v>74.5</v>
-      </c>
-      <c r="L12" s="6">
-        <f t="shared" si="6"/>
-        <v>2384</v>
-      </c>
-      <c r="M12" s="6">
-        <f>$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N12" s="6">
-        <f t="shared" si="7"/>
-        <v>2</v>
-      </c>
-      <c r="O12" s="6">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
+      <c r="O12" s="6">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
       <c r="P12" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>64</v>
       </c>
       <c r="Q12" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>4</v>
       </c>
       <c r="R12" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>128</v>
       </c>
     </row>
@@ -2394,15 +2402,15 @@
         <v>25</v>
       </c>
       <c r="F13" s="6">
-        <f t="shared" si="0"/>
+        <f t="shared" si="1"/>
         <v>80</v>
       </c>
       <c r="G13" s="6">
-        <f t="shared" si="1"/>
+        <f t="shared" si="2"/>
         <v>89</v>
       </c>
       <c r="H13" s="6">
-        <f t="shared" si="2"/>
+        <f t="shared" si="3"/>
         <v>79.5</v>
       </c>
       <c r="I13" s="6">
@@ -2410,39 +2418,39 @@
         <v>89.5</v>
       </c>
       <c r="J13" s="6">
-        <f t="shared" si="4"/>
+        <f t="shared" si="5"/>
         <v>93</v>
       </c>
       <c r="K13" s="6">
-        <f t="shared" si="5"/>
+        <f t="shared" si="6"/>
         <v>84.5</v>
       </c>
       <c r="L13" s="6">
-        <f t="shared" si="6"/>
+        <f t="shared" si="7"/>
         <v>2112.5</v>
       </c>
       <c r="M13" s="6">
-        <f>$E$17</f>
+        <f t="shared" si="0"/>
         <v>72.5</v>
       </c>
       <c r="N13" s="6">
-        <f t="shared" si="7"/>
-        <v>12</v>
-      </c>
-      <c r="O13" s="6">
         <f t="shared" si="8"/>
         <v>12</v>
       </c>
+      <c r="O13" s="6">
+        <f t="shared" si="9"/>
+        <v>12</v>
+      </c>
       <c r="P13" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>300</v>
       </c>
       <c r="Q13" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>144</v>
       </c>
       <c r="R13" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3600</v>
       </c>
     </row>
@@ -2460,64 +2468,64 @@
         <v>7</v>
       </c>
       <c r="F14" s="6">
+        <f t="shared" si="1"/>
+        <v>90</v>
+      </c>
+      <c r="G14" s="6">
+        <f t="shared" si="2"/>
+        <v>99</v>
+      </c>
+      <c r="H14" s="6">
+        <f t="shared" si="3"/>
+        <v>89.5</v>
+      </c>
+      <c r="I14" s="6">
+        <f t="shared" si="4"/>
+        <v>99.5</v>
+      </c>
+      <c r="J14" s="6">
+        <f t="shared" si="5"/>
+        <v>100</v>
+      </c>
+      <c r="K14" s="6">
+        <f t="shared" si="6"/>
+        <v>94.5</v>
+      </c>
+      <c r="L14" s="6">
+        <f t="shared" si="7"/>
+        <v>661.5</v>
+      </c>
+      <c r="M14" s="6">
         <f t="shared" si="0"/>
-        <v>90</v>
-      </c>
-      <c r="G14" s="6">
-        <f t="shared" si="1"/>
-        <v>99</v>
-      </c>
-      <c r="H14" s="6">
-        <f t="shared" si="2"/>
-        <v>89.5</v>
-      </c>
-      <c r="I14" s="6">
-        <f t="shared" si="3"/>
-        <v>99.5</v>
-      </c>
-      <c r="J14" s="6">
-        <f t="shared" si="4"/>
-        <v>100</v>
-      </c>
-      <c r="K14" s="6">
-        <f t="shared" si="5"/>
-        <v>94.5</v>
-      </c>
-      <c r="L14" s="6">
-        <f t="shared" si="6"/>
-        <v>661.5</v>
-      </c>
-      <c r="M14" s="6">
-        <f>$E$17</f>
         <v>72.5</v>
       </c>
       <c r="N14" s="6">
-        <f t="shared" si="7"/>
-        <v>22</v>
-      </c>
-      <c r="O14" s="6">
         <f t="shared" si="8"/>
         <v>22</v>
       </c>
+      <c r="O14" s="6">
+        <f t="shared" si="9"/>
+        <v>22</v>
+      </c>
       <c r="P14" s="6">
-        <f t="shared" si="9"/>
+        <f t="shared" si="10"/>
         <v>154</v>
       </c>
       <c r="Q14" s="2">
-        <f t="shared" si="10"/>
+        <f t="shared" si="11"/>
         <v>484</v>
       </c>
       <c r="R14" s="6">
-        <f t="shared" si="11"/>
+        <f t="shared" si="12"/>
         <v>3388</v>
       </c>
     </row>
     <row r="15" spans="2:18" x14ac:dyDescent="0.25">
-      <c r="B15" s="15" t="s">
+      <c r="B15" s="16" t="s">
         <v>0</v>
       </c>
-      <c r="C15" s="15"/>
-      <c r="D15" s="15"/>
+      <c r="C15" s="16"/>
+      <c r="D15" s="16"/>
       <c r="E15" s="1">
         <f>SUM(E8:E14)</f>
         <v>100</v>

--- a/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/tugas/Pertemuan 5.xlsx
+++ b/Rabu/Statistika/Minggu 5 - Ukuran Dispersi/tugas/Pertemuan 5.xlsx
@@ -611,8 +611,8 @@
       <xdr:rowOff>57150</xdr:rowOff>
     </xdr:from>
     <xdr:ext cx="1409700" cy="546625"/>
-    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main">
-      <mc:Choice Requires="a14">
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" Requires="a14">
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -620,7 +620,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="647700" y="3305175"/>
+              <a:off x="247650" y="3505200"/>
               <a:ext cx="1409700" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -813,7 +813,7 @@
           </xdr:txBody>
         </xdr:sp>
       </mc:Choice>
-      <mc:Fallback xmlns="">
+      <mc:Fallback>
         <xdr:sp macro="" textlink="">
           <xdr:nvSpPr>
             <xdr:cNvPr id="2" name="TextBox 1"/>
@@ -821,7 +821,7 @@
           </xdr:nvSpPr>
           <xdr:spPr>
             <a:xfrm>
-              <a:off x="647700" y="3305175"/>
+              <a:off x="247650" y="3505200"/>
               <a:ext cx="1409700" cy="546625"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
@@ -854,19 +854,91 @@
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥 ̅=</a:t>
+                <a:t>𝑥</a:t>
               </a:r>
               <a:r>
-                <a:rPr lang="id-ID" sz="1400" i="0">
-                  <a:latin typeface="Cambria Math"/>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
                 </a:rPr>
-                <a:t>(∑▒〖</a:t>
+                <a:t> ̅</a:t>
               </a:r>
               <a:r>
                 <a:rPr lang="id-ID" sz="1400" b="0" i="0">
                   <a:latin typeface="Cambria Math"/>
                 </a:rPr>
-                <a:t>𝑥_𝑖.𝑓_𝑖 〗)/(∑▒𝑓_𝑖 )</a:t>
+                <a:t>=</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>(∑</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>▒〖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑥</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖.𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> 〗)/(∑▒</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑓</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t>_</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math"/>
+                </a:rPr>
+                <a:t>𝑖</a:t>
+              </a:r>
+              <a:r>
+                <a:rPr lang="id-ID" sz="1400" b="0" i="0">
+                  <a:latin typeface="Cambria Math" panose="02040503050406030204" pitchFamily="18" charset="0"/>
+                </a:rPr>
+                <a:t> )</a:t>
               </a:r>
               <a:endParaRPr lang="id-ID" sz="1400"/>
             </a:p>
@@ -1968,8 +2040,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A2:R22"/>
   <sheetViews>
-    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A4" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
-      <selection activeCell="I17" sqref="I17"/>
+    <sheetView showGridLines="0" tabSelected="1" topLeftCell="A16" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
+      <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -2116,7 +2188,7 @@
         <v>76</v>
       </c>
       <c r="Q8" s="2">
-        <f>(K8-M8)^2</f>
+        <f>N8^2</f>
         <v>1444</v>
       </c>
       <c r="R8" s="6">
@@ -2583,8 +2655,8 @@
         <v>23</v>
       </c>
       <c r="I22" s="1">
-        <f>SQRT(I17)^2</f>
-        <v>173.73737373737376</v>
+        <f>SQRT(I17)</f>
+        <v>13.18094737632215</v>
       </c>
     </row>
   </sheetData>
